--- a/rosters/2022/LA Clippers/LA Clippers.xlsx
+++ b/rosters/2022/LA Clippers/LA Clippers.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweso\OneDrive\Desktop\NBA PREDICTOR\rosters\2022\LA Clippers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D106AB8-BC0E-48DD-994C-0998EB1FE6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -382,9 +388,6 @@
     <t>https://www.basketball-reference.com/players/m/moonxa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/morrima02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/o/ojelese01.html</t>
   </si>
   <si>
@@ -401,13 +404,16 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/z/zubaciv01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/morrima03.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +489,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -529,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,9 +575,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,6 +627,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,14 +820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -841,7 +893,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -876,7 +928,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -911,7 +963,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -946,7 +998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -981,7 +1033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1016,7 +1068,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1051,7 +1103,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1086,7 +1138,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1118,7 +1170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1153,7 +1205,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1185,7 +1237,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1220,7 +1272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1255,7 +1307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1290,7 +1342,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1325,7 +1377,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1360,7 +1412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1392,10 +1444,10 @@
         <v>101</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1427,10 +1479,10 @@
         <v>102</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1462,10 +1514,10 @@
         <v>103</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1497,10 +1549,10 @@
         <v>104</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1532,10 +1584,10 @@
         <v>98</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1567,10 +1619,10 @@
         <v>105</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,34 +1651,34 @@
         <v>89</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="K19" r:id="rId18"/>
-    <hyperlink ref="K20" r:id="rId19"/>
-    <hyperlink ref="K21" r:id="rId20"/>
-    <hyperlink ref="K22" r:id="rId21"/>
-    <hyperlink ref="K23" r:id="rId22"/>
-    <hyperlink ref="K24" r:id="rId23"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
